--- a/配置文档/实体配置相关/炮塔配置.xlsx
+++ b/配置文档/实体配置相关/炮塔配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="6495"/>
+    <workbookView windowWidth="17805" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_TowerData_炮塔基础表" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="1">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,30 +41,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>字段导出设置
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t>炮塔ID
-（每个建筑特有的记号）</t>
+    <t>实体id</t>
   </si>
   <si>
     <t>炮塔名称</t>
-  </si>
-  <si>
-    <t>属性模板列表
-属性是cfg_AttributeTemplate_属性模板表与cfg_AttributeData_实体属性表覆盖的结果</t>
-  </si>
-  <si>
-    <t>实体id
-用于属性等配置
-(要求唯一)</t>
-  </si>
-  <si>
-    <t>炮塔归属
-（该建筑默认属于那方阵营）导用cfg_Troops_阵营</t>
   </si>
   <si>
     <t>炮塔占地(横轴，纵轴)
@@ -72,11 +58,20 @@
 大多数单位都是敌人，也无所谓碰撞体精确了）(左上是)</t>
   </si>
   <si>
+    <t>建造规则
+cfg_BuildRule_建造
+规则id列表</t>
+  </si>
+  <si>
+    <t>最大建造进度
+每秒增加60的建造进度</t>
+  </si>
+  <si>
     <t>武器列表
-(武器id,阵营id(0是炮塔阵营，非0为对应阵营),坐标X，坐标Y) 坐标单位像素</t>
-  </si>
-  <si>
-    <t>炮塔
+(武器id,坐标X，坐标Y) 坐标单位像素</t>
+  </si>
+  <si>
+    <t>武器
 动画类型列表</t>
   </si>
   <si>
@@ -86,24 +81,21 @@
     <t>字段名称</t>
   </si>
   <si>
-    <t>TowerId</t>
+    <t>ObjectId</t>
   </si>
   <si>
     <t>TowerName</t>
   </si>
   <si>
-    <t>TempLateList</t>
-  </si>
-  <si>
-    <t>ObjectId</t>
-  </si>
-  <si>
-    <t>CampId</t>
-  </si>
-  <si>
     <t>TowerSize</t>
   </si>
   <si>
+    <t>BuildingRules</t>
+  </si>
+  <si>
+    <t>#BuildProgress</t>
+  </si>
+  <si>
     <t>WeaponList</t>
   </si>
   <si>
@@ -119,12 +111,12 @@
     <t>STR</t>
   </si>
   <si>
+    <t>Vector2I</t>
+  </si>
+  <si>
     <t>&lt;INT&gt;</t>
   </si>
   <si>
-    <t>Vector2I</t>
-  </si>
-  <si>
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
@@ -134,7 +126,10 @@
     <t>(3,3)</t>
   </si>
   <si>
-    <t>(1,0,40,40)</t>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>(4001,40,40)</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -143,6 +138,9 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
@@ -152,6 +150,9 @@
     <t>BOOL</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -161,6 +162,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -200,6 +204,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -248,6 +255,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -281,6 +291,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -290,6 +303,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -317,6 +333,9 @@
     <t>PNG</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -338,21 +357,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -372,6 +391,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -560,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,12 +598,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +914,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,16 +938,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -934,89 +956,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,7 +1060,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1047,14 +1069,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1119,12 +1144,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1380,24 +1406,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="5" width="18.7916666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="38.3583333333333" customWidth="1"/>
-    <col min="8" max="9" width="21.9583333333333" customWidth="1"/>
+    <col min="2" max="3" width="14.675" customWidth="1"/>
+    <col min="4" max="4" width="38.3583333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.525" customWidth="1"/>
+    <col min="6" max="7" width="21.9583333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="85" customHeight="1" spans="1:9">
+    <row r="1" s="4" customFormat="1" ht="85" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1407,28 +1432,25 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" ht="28" customHeight="1" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="28" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1449,111 +1471,103 @@
         <v>2</v>
       </c>
       <c r="H2" s="6">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="27" customHeight="1" spans="1:9">
+    <row r="3" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+    </row>
+    <row r="4" s="5" customFormat="1" ht="43" customHeight="1" spans="1:8">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="43" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="85" customHeight="1" spans="1:8">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2001</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="85" customHeight="1" spans="1:9">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="11">
+        <v>600</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="37" customHeight="1" spans="1:9">
+    </row>
+    <row r="6" ht="37" customHeight="1" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 E4:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 G4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1566,34 +1580,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1606,414 +1624,533 @@
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
+        <v>110</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>106</v>
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/实体配置相关/炮塔配置.xlsx
+++ b/配置文档/实体配置相关/炮塔配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17805" windowHeight="7080" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_TowerData_炮塔基础表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
   <si>
     <t>字段导出设置
 数据不想填就写 #BASEVALUE</t>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>(4001,40,40)</t>
+  </si>
+  <si>
+    <t>测试炮塔2</t>
+  </si>
+  <si>
+    <t>测试炮塔3</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -1038,14 +1044,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1073,12 +1076,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1408,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1422,148 +1419,187 @@
     <col min="8" max="8" width="18.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="85" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="85" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="28" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="4" customFormat="1" ht="28" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="43" customHeight="1" spans="1:8">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="4" customFormat="1" ht="43" customHeight="1" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="85" customHeight="1" spans="1:8">
-      <c r="A5" s="9">
+    <row r="5" s="6" customFormat="1" ht="85" customHeight="1" spans="1:8">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2001</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>600</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="37" customHeight="1" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10">
+        <v>600</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10">
+        <v>600</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1582,7 +1618,7 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1596,19 +1632,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1616,16 +1652,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1633,16 +1669,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1653,13 +1689,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1667,16 +1703,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1684,16 +1720,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1705,10 +1741,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1716,16 +1752,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1733,16 +1769,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1753,13 +1789,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1767,16 +1803,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1784,16 +1820,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1801,13 +1837,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1815,10 +1851,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1826,10 +1862,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1837,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1848,10 +1884,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1859,10 +1895,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1870,10 +1906,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1881,10 +1917,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1892,10 +1928,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1906,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1914,10 +1950,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1925,10 +1961,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1936,10 +1972,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1947,16 +1983,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1964,16 +2000,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1981,16 +2017,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1998,16 +2034,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2015,13 +2051,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2032,13 +2068,13 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2046,16 +2082,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2063,16 +2099,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2080,16 +2116,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2097,16 +2133,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2114,14 +2150,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2129,28 +2165,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/实体配置相关/炮塔配置.xlsx
+++ b/配置文档/实体配置相关/炮塔配置.xlsx
@@ -7,13 +7,12 @@
     <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_TowerData_炮塔基础表" sheetId="1" r:id="rId1"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId2"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="0">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="0">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,308 +40,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
-  <si>
-    <t>字段导出设置
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>实体id</t>
-  </si>
-  <si>
-    <t>炮塔名称</t>
-  </si>
-  <si>
-    <t>炮塔占地(横轴，纵轴)
-（算直径吧，比较好算，按像素算，
-大多数单位都是敌人，也无所谓碰撞体精确了）(左上是)</t>
-  </si>
-  <si>
-    <t>建造规则
-cfg_BuildRule_建造
-规则id列表</t>
-  </si>
-  <si>
-    <t>最大建造进度
-每秒增加60的建造进度</t>
-  </si>
-  <si>
-    <t>武器列表
-(武器id,坐标X，坐标Y) 坐标单位像素</t>
-  </si>
-  <si>
-    <t>武器
-动画类型列表</t>
-  </si>
-  <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>ObjectId</t>
-  </si>
-  <si>
-    <t>TowerName</t>
-  </si>
-  <si>
-    <t>TowerSize</t>
-  </si>
-  <si>
-    <t>BuildingRules</t>
-  </si>
-  <si>
-    <t>#BuildProgress</t>
-  </si>
-  <si>
-    <t>WeaponList</t>
-  </si>
-  <si>
-    <t>AnimaTypeList</t>
-  </si>
-  <si>
-    <t>数据类型</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
+  <si>
+    <t>数据类型编号</t>
+  </si>
+  <si>
+    <t>数据类型名称</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>数据类型描述</t>
+  </si>
+  <si>
+    <t>数据类型示例</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
+  </si>
+  <si>
+    <t>True       False</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
+  </si>
+  <si>
+    <t>11112      -21232</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
+    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
+  </si>
+  <si>
+    <t>1212312321</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
+  </si>
+  <si>
+    <t>52122122111111</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
+  </si>
+  <si>
+    <t>554.1233  622125.1231</t>
+  </si>
+  <si>
     <t>STR</t>
   </si>
   <si>
+    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>&lt;BOOL&gt;</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
+  </si>
+  <si>
+    <t>True|True|False</t>
+  </si>
+  <si>
+    <t>&lt;SHORT&gt;</t>
+  </si>
+  <si>
+    <t>短整数列表，用于保存一个由短整数组成的列表</t>
+  </si>
+  <si>
+    <t>123|121|434|-121</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>整数列表，用于保存一个由整数组成的列表</t>
+  </si>
+  <si>
+    <t>2323232|1212|2343|545</t>
+  </si>
+  <si>
+    <t>&lt;LONG&gt;</t>
+  </si>
+  <si>
+    <t>长整数列表，用于保存一个由长整数组成的列表</t>
+  </si>
+  <si>
+    <t>52122122111111|1223434433</t>
+  </si>
+  <si>
+    <t>&lt;FLOAT&gt;</t>
+  </si>
+  <si>
+    <t>小数列表，用于保存一个由小数组成的列表</t>
+  </si>
+  <si>
+    <t>554.1233|12.12</t>
+  </si>
+  <si>
+    <t>&lt;STR&gt;</t>
+  </si>
+  <si>
+    <t>字符串列表</t>
+  </si>
+  <si>
+    <t>(BOOL)</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>(SHORT)</t>
+  </si>
+  <si>
+    <t>(INT)</t>
+  </si>
+  <si>
+    <t>(LONG)</t>
+  </si>
+  <si>
+    <t>(FLOAT)</t>
+  </si>
+  <si>
+    <t>(STR)</t>
+  </si>
+  <si>
+    <t>&lt;(BOOL)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(SHORT)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(LONG)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(FLOAT)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(STR)&gt;</t>
+  </si>
+  <si>
+    <t>LANG</t>
+  </si>
+  <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
+    <t>语言id 是语言配置的id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>保存小数二维坐标的类型</t>
+  </si>
+  <si>
+    <t>(1.2,3.5)</t>
+  </si>
+  <si>
+    <t>&lt;LANG&gt;</t>
+  </si>
+  <si>
+    <t>语言id列表</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>&lt;POINT&gt;</t>
+  </si>
+  <si>
+    <t>坐标点列表，Vector2的列表，用于保存小数二维坐标列表的类型</t>
+  </si>
+  <si>
+    <t>(1.2,3.5)|(1.4,3.2)</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
+  </si>
+  <si>
     <t>Vector2I</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(INT)&gt;</t>
-  </si>
-  <si>
-    <t>测试炮塔1</t>
-  </si>
-  <si>
-    <t>(3,3)</t>
-  </si>
-  <si>
-    <t>1|3</t>
-  </si>
-  <si>
-    <t>(4001,40,40)</t>
-  </si>
-  <si>
-    <t>测试炮塔2</t>
-  </si>
-  <si>
-    <t>测试炮塔3</t>
-  </si>
-  <si>
-    <t>数据类型编号</t>
-  </si>
-  <si>
-    <t>数据类型名称</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>数据类型描述</t>
-  </si>
-  <si>
-    <t>数据类型示例</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
-  </si>
-  <si>
-    <t>True       False</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
-  </si>
-  <si>
-    <t>11112      -21232</t>
-  </si>
-  <si>
-    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
-  </si>
-  <si>
-    <t>1212312321</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
-  </si>
-  <si>
-    <t>52122122111111</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
-  </si>
-  <si>
-    <t>554.1233  622125.1231</t>
-  </si>
-  <si>
-    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>&lt;BOOL&gt;</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
-  </si>
-  <si>
-    <t>True|True|False</t>
-  </si>
-  <si>
-    <t>&lt;SHORT&gt;</t>
-  </si>
-  <si>
-    <t>短整数列表，用于保存一个由短整数组成的列表</t>
-  </si>
-  <si>
-    <t>123|121|434|-121</t>
-  </si>
-  <si>
-    <t>整数列表，用于保存一个由整数组成的列表</t>
-  </si>
-  <si>
-    <t>2323232|1212|2343|545</t>
-  </si>
-  <si>
-    <t>&lt;LONG&gt;</t>
-  </si>
-  <si>
-    <t>长整数列表，用于保存一个由长整数组成的列表</t>
-  </si>
-  <si>
-    <t>52122122111111|1223434433</t>
-  </si>
-  <si>
-    <t>&lt;FLOAT&gt;</t>
-  </si>
-  <si>
-    <t>小数列表，用于保存一个由小数组成的列表</t>
-  </si>
-  <si>
-    <t>554.1233|12.12</t>
-  </si>
-  <si>
-    <t>&lt;STR&gt;</t>
-  </si>
-  <si>
-    <t>字符串列表</t>
-  </si>
-  <si>
-    <t>(BOOL)</t>
-  </si>
-  <si>
-    <t>()</t>
-  </si>
-  <si>
-    <t>(SHORT)</t>
-  </si>
-  <si>
-    <t>(INT)</t>
-  </si>
-  <si>
-    <t>(LONG)</t>
-  </si>
-  <si>
-    <t>(FLOAT)</t>
-  </si>
-  <si>
-    <t>(STR)</t>
-  </si>
-  <si>
-    <t>&lt;(BOOL)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(SHORT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(LONG)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(FLOAT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(STR)&gt;</t>
-  </si>
-  <si>
-    <t>LANG</t>
-  </si>
-  <si>
-    <t>KeyBase</t>
-  </si>
-  <si>
-    <t>语言id 是语言配置的id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>POINT</t>
-  </si>
-  <si>
-    <t>(0,0)</t>
-  </si>
-  <si>
-    <t>保存小数二维坐标的类型</t>
-  </si>
-  <si>
-    <t>(1.2,3.5)</t>
-  </si>
-  <si>
-    <t>&lt;LANG&gt;</t>
-  </si>
-  <si>
-    <t>语言id列表</t>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>&lt;POINT&gt;</t>
-  </si>
-  <si>
-    <t>坐标点列表，Vector2的列表，用于保存小数二维坐标列表的类型</t>
-  </si>
-  <si>
-    <t>(1.2,3.5)|(1.4,3.2)</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
     <t>整数类型的二维坐标</t>
@@ -418,7 +337,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,21 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -603,121 +507,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,137 +818,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,30 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,222 +1283,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="4" width="38.3583333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.525" customWidth="1"/>
-    <col min="6" max="7" width="21.9583333333333" customWidth="1"/>
-    <col min="8" max="8" width="18.0916666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" ht="85" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="28" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="43" customHeight="1" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="85" customHeight="1" spans="1:8">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2001</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="10">
-        <v>600</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="37" customHeight="1" spans="1:8">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2002</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10">
-        <v>600</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:8">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2003</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="10">
-        <v>600</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 G4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1632,19 +1299,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1652,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1669,16 +1336,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1686,16 +1353,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1703,16 +1370,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1720,16 +1387,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1737,14 +1404,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1752,16 +1419,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1769,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1786,16 +1453,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1803,16 +1470,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1820,16 +1487,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1837,13 +1504,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1851,10 +1518,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1862,10 +1529,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1873,10 +1540,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1884,10 +1551,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1895,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1906,10 +1573,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1917,10 +1584,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1928,10 +1595,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1939,10 +1606,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1950,10 +1617,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1961,10 +1628,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1972,10 +1639,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1983,16 +1650,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2000,16 +1667,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2017,16 +1684,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2034,16 +1701,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2051,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2065,16 +1732,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2082,16 +1749,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2099,16 +1766,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2116,16 +1783,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2133,16 +1800,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2150,14 +1817,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2165,11 +1832,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2177,16 +1844,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
